--- a/Runs_Ergebnisse.xlsx
+++ b/Runs_Ergebnisse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DokumenteVonPascal\Studium\rle\rle_MC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\schule\rle_MC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F7F87-3588-4FAF-BB56-E269B1296654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD044CF-60E0-44E3-86BE-FA214617F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="394" xr2:uid="{B2F0702D-948A-497F-A951-A18E7A8DD957}"/>
   </bookViews>
@@ -310,18 +310,9 @@
     <t>2022-06-07_09-54-54</t>
   </si>
   <si>
-    <t>Training=6951.81</t>
-  </si>
-  <si>
-    <t>Test=92.60</t>
-  </si>
-  <si>
     <t>mean_episode_reward=193.33, std_episode_reward=44.17, min_episode_reward=155.00, max_episode_reward=385.00</t>
   </si>
   <si>
-    <t>Test=105.30</t>
-  </si>
-  <si>
     <t>mean_episode_reward=287.17, std_episode_reward=182.58, min_episode_reward=65.00, max_episode_reward=720.00</t>
   </si>
   <si>
@@ -331,9 +322,6 @@
     <t xml:space="preserve">besser, epsilon bleibt bleibt </t>
   </si>
   <si>
-    <t>Training=7169.17</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
@@ -344,6 +332,18 @@
   </si>
   <si>
     <t>Die Eval Resultate sind durch Plots in eval_vis evaluiert worden</t>
+  </si>
+  <si>
+    <t>Training=115.87 min</t>
+  </si>
+  <si>
+    <t>Training=119.49 min</t>
+  </si>
+  <si>
+    <t>Test=92.60 s</t>
+  </si>
+  <si>
+    <t>Test=105.30 s</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C21" s="4">
         <v>0.05</v>
@@ -1078,13 +1078,13 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1092,27 +1092,27 @@
         <v>0.1</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
         <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
